--- a/R vs d_by_sqrtL_data.xlsx
+++ b/R vs d_by_sqrtL_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" activeTab="4"/>
@@ -13,12 +13,12 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="59">
   <si>
     <t>d</t>
   </si>
@@ -200,8 +200,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -310,9 +310,6 @@
     <xf numFmtId="11" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -321,6 +318,19 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -347,13 +357,27 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -412,41 +436,57 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="135124480"/>
-        <c:axId val="135126016"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="44337024"/>
+        <c:axId val="44338560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135124480"/>
+        <c:axId val="44337024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135126016"/>
+        <c:crossAx val="44338560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135126016"/>
+        <c:axId val="44338560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135124480"/>
+        <c:crossAx val="44337024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -458,12 +498,24 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -517,41 +569,56 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="135895296"/>
-        <c:axId val="136056832"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="43382656"/>
+        <c:axId val="43384192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135895296"/>
+        <c:axId val="43382656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136056832"/>
+        <c:crossAx val="43384192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136056832"/>
+        <c:axId val="43384192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135895296"/>
+        <c:crossAx val="43382656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -563,12 +630,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -616,40 +695,56 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="134945792"/>
-        <c:axId val="134963968"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="44363136"/>
+        <c:axId val="44364928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="134945792"/>
+        <c:axId val="44363136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134963968"/>
+        <c:crossAx val="44364928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134963968"/>
+        <c:axId val="44364928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134945792"/>
+        <c:crossAx val="44363136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -661,12 +756,24 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -714,40 +821,56 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="134991872"/>
-        <c:axId val="134993408"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="44647168"/>
+        <c:axId val="44648704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="134991872"/>
+        <c:axId val="44647168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134993408"/>
+        <c:crossAx val="44648704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134993408"/>
+        <c:axId val="44648704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134991872"/>
+        <c:crossAx val="44647168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -759,12 +882,24 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -812,40 +947,56 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="135680768"/>
-        <c:axId val="135682304"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="44670336"/>
+        <c:axId val="44680320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135680768"/>
+        <c:axId val="44670336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135682304"/>
+        <c:crossAx val="44680320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135682304"/>
+        <c:axId val="44680320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135680768"/>
+        <c:crossAx val="44670336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -857,8 +1008,19 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -873,6 +1035,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -918,6 +1081,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -964,6 +1128,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1010,42 +1175,58 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="135839104"/>
-        <c:axId val="135853184"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="44616320"/>
+        <c:axId val="44618112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135839104"/>
+        <c:axId val="44616320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135853184"/>
+        <c:crossAx val="44618112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135853184"/>
+        <c:axId val="44618112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135839104"/>
+        <c:crossAx val="44616320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1057,12 +1238,24 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1204,40 +1397,56 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="135759744"/>
-        <c:axId val="135761280"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="43140992"/>
+        <c:axId val="43142528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135759744"/>
+        <c:axId val="43140992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135761280"/>
+        <c:crossAx val="43142528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135761280"/>
+        <c:axId val="43142528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135759744"/>
+        <c:crossAx val="43140992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1249,7 +1458,17 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1267,12 +1486,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1420,41 +1641,56 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="135938432"/>
-        <c:axId val="135939968"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="43176704"/>
+        <c:axId val="43178240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135938432"/>
+        <c:axId val="43176704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135939968"/>
+        <c:crossAx val="43178240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135939968"/>
+        <c:axId val="43178240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135938432"/>
+        <c:crossAx val="43176704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1466,12 +1702,24 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1613,41 +1861,56 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="135969408"/>
-        <c:axId val="135979392"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="43208064"/>
+        <c:axId val="43213952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135969408"/>
+        <c:axId val="43208064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135979392"/>
+        <c:crossAx val="43213952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135979392"/>
+        <c:axId val="43213952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135969408"/>
+        <c:crossAx val="43208064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1659,12 +1922,24 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-IN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1812,40 +2087,56 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="135877760"/>
-        <c:axId val="135879296"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="43241856"/>
+        <c:axId val="43243392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135877760"/>
+        <c:axId val="43241856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135879296"/>
+        <c:crossAx val="43243392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135879296"/>
+        <c:axId val="43243392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135877760"/>
+        <c:crossAx val="43241856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2245,6 +2536,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2279,6 +2571,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2454,14 +2747,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
@@ -2478,7 +2771,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2489,7 +2782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2500,7 +2793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2511,7 +2804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2522,7 +2815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2534,7 +2827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2542,7 +2835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -2551,7 +2844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="9" customFormat="1">
+    <row r="8" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -2594,7 +2887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="9" customFormat="1">
+    <row r="9" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -2651,7 +2944,7 @@
         <v>1496.6745823029614</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="9" customFormat="1">
+    <row r="10" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1E-3</v>
       </c>
@@ -2705,7 +2998,7 @@
         <v>-27.785569839475947</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="9" customFormat="1">
+    <row r="11" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -2759,7 +3052,7 @@
         <v>-2.7735566664147202E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="9" customFormat="1">
+    <row r="12" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -2813,8 +3106,8 @@
         <v>-0.17078124737596223</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="9" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:17" s="9" customFormat="1">
+    <row r="13" spans="1:17" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>0</v>
       </c>
@@ -2857,7 +3150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="9" customFormat="1">
+    <row r="15" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -2917,7 +3210,7 @@
         <v>5.2465019984472505</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="9" customFormat="1">
+    <row r="16" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>1E-3</v>
       </c>
@@ -2974,7 +3267,7 @@
         <v>7.0482758457583616E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="9" customFormat="1">
+    <row r="17" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -3031,7 +3324,7 @@
         <v>1.2678313287736311E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="9" customFormat="1">
+    <row r="18" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -3088,8 +3381,8 @@
         <v>2.1708169395030584E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="9" customFormat="1"/>
-    <row r="20" spans="1:17" s="9" customFormat="1">
+    <row r="19" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>0</v>
       </c>
@@ -3132,7 +3425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="9" customFormat="1">
+    <row r="21" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -3189,7 +3482,7 @@
         <v>-2.7564384332853915E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="9" customFormat="1">
+    <row r="22" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>1E-3</v>
       </c>
@@ -3243,7 +3536,7 @@
         <v>1.209455790061191E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="9" customFormat="1">
+    <row r="23" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>2E-3</v>
       </c>
@@ -3297,7 +3590,7 @@
         <v>7.0610414242647246E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="9" customFormat="1">
+    <row r="24" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -3351,8 +3644,8 @@
         <v>-7.2846687230598544E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="4" customFormat="1"/>
-    <row r="27" spans="1:17">
+    <row r="26" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
@@ -3389,7 +3682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -3432,7 +3725,7 @@
         <v>5.9970648447687396E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1E-3</v>
       </c>
@@ -3472,7 +3765,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -3512,7 +3805,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -3552,12 +3845,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="13.5" customHeight="1">
+    <row r="33" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="7" customFormat="1">
+    <row r="34" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>0</v>
       </c>
@@ -3600,7 +3893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="7" customFormat="1">
+    <row r="35" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -3657,7 +3950,7 @@
         <v>7.4765566395364607</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="7" customFormat="1">
+    <row r="36" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>1E-3</v>
       </c>
@@ -3697,7 +3990,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="7" customFormat="1">
+    <row r="37" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -3751,7 +4044,7 @@
         <v>6.2891779411261201E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="7" customFormat="1">
+    <row r="38" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -3791,7 +4084,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>0</v>
       </c>
@@ -3828,7 +4121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -3871,7 +4164,7 @@
         <v>5.9970648447687396E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1E-3</v>
       </c>
@@ -3911,7 +4204,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2E-3</v>
       </c>
@@ -3951,7 +4244,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -3991,13 +4284,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="4" customFormat="1"/>
-    <row r="47" spans="1:17" s="5" customFormat="1">
+    <row r="46" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E47" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="9" customFormat="1">
+    <row r="48" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>0</v>
       </c>
@@ -4040,7 +4333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="9" customFormat="1">
+    <row r="49" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -4093,7 +4386,7 @@
         <v>-7.5079331656193791E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="9" customFormat="1">
+    <row r="50" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>1E-3</v>
       </c>
@@ -4143,7 +4436,7 @@
         <v>4.0143844783503628E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="9" customFormat="1">
+    <row r="51" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -4193,7 +4486,7 @@
         <v>4.7206259497780092</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="9" customFormat="1">
+    <row r="52" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -4243,12 +4536,12 @@
         <v>-0.93988350392368825</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="9" customFormat="1">
+    <row r="53" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N53" s="12"/>
       <c r="O53" s="12"/>
       <c r="P53" s="12"/>
     </row>
-    <row r="54" spans="1:17" s="9" customFormat="1">
+    <row r="54" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>0</v>
       </c>
@@ -4291,7 +4584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:17" s="9" customFormat="1">
+    <row r="55" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -4344,7 +4637,7 @@
         <v>1.6527385215688197</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="9" customFormat="1">
+    <row r="56" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>1E-3</v>
       </c>
@@ -4394,7 +4687,7 @@
         <v>-2.5938867474141132</v>
       </c>
     </row>
-    <row r="57" spans="1:17" s="9" customFormat="1">
+    <row r="57" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -4444,7 +4737,7 @@
         <v>142.97959048758889</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="9" customFormat="1">
+    <row r="58" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -4494,8 +4787,8 @@
         <v>172.62470484213475</v>
       </c>
     </row>
-    <row r="59" spans="1:17" s="9" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="60" spans="1:17" s="9" customFormat="1">
+    <row r="59" spans="1:17" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>0</v>
       </c>
@@ -4538,7 +4831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="9" customFormat="1">
+    <row r="61" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -4591,7 +4884,7 @@
         <v>-379.05344262583134</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="9" customFormat="1">
+    <row r="62" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>1E-3</v>
       </c>
@@ -4645,7 +4938,7 @@
         <v>3.8717341170073213E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="9" customFormat="1">
+    <row r="63" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -4695,7 +4988,7 @@
         <v>724.00680950148023</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="9" customFormat="1">
+    <row r="64" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -4745,7 +5038,7 @@
         <v>881.36601265714228</v>
       </c>
     </row>
-    <row r="65" s="9" customFormat="1"/>
+    <row r="65" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4754,14 +5047,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
@@ -4783,7 +5076,7 @@
     <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4794,7 +5087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4817,7 +5110,7 @@
         <v>1.3235433070866141</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -4836,7 +5129,7 @@
         <v>1.1910236220472441</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -4855,7 +5148,7 @@
         <v>3.7670866141732287</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -4875,7 +5168,7 @@
         <v>0.95645383136711803</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -4883,7 +5176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -4892,12 +5185,12 @@
         <v>22</v>
       </c>
       <c r="I7" s="10"/>
-      <c r="V7" s="16" t="s">
+      <c r="V7" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="W7" s="16"/>
-    </row>
-    <row r="8" spans="1:31" s="9" customFormat="1">
+      <c r="W7" s="23"/>
+    </row>
+    <row r="8" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -4976,7 +5269,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="9" customFormat="1">
+    <row r="9" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -5064,7 +5357,7 @@
         <v>0.40442091052967433</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="9" customFormat="1">
+    <row r="10" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1E-3</v>
       </c>
@@ -5166,7 +5459,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="9" customFormat="1">
+    <row r="11" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -5253,7 +5546,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="9" customFormat="1">
+    <row r="12" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -5338,8 +5631,8 @@
         <v>-6.1782723634085546E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="9" customFormat="1" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:31" s="9" customFormat="1">
+    <row r="13" spans="1:31" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>0</v>
       </c>
@@ -5368,7 +5661,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:31" s="9" customFormat="1">
+    <row r="15" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>1E-4</v>
       </c>
@@ -5388,7 +5681,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:31" s="8" customFormat="1">
+    <row r="16" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>H16/F16</f>
         <v>2.0000000000000001E-4</v>
@@ -5446,7 +5739,7 @@
         <v>1.7171772761882098E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:31" s="9" customFormat="1">
+    <row r="17" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -5534,7 +5827,7 @@
         <v>-0.78409772367581532</v>
       </c>
     </row>
-    <row r="18" spans="1:31" s="9" customFormat="1">
+    <row r="18" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>1E-3</v>
       </c>
@@ -5636,7 +5929,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:31" s="9" customFormat="1">
+    <row r="19" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -5721,7 +6014,7 @@
         <v>-1.1669680963262943</v>
       </c>
     </row>
-    <row r="20" spans="1:31" s="9" customFormat="1">
+    <row r="20" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -5806,8 +6099,8 @@
         <v>-1.7138977236758137</v>
       </c>
     </row>
-    <row r="21" spans="1:31" s="9" customFormat="1"/>
-    <row r="22" spans="1:31" s="9" customFormat="1">
+    <row r="21" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>0</v>
       </c>
@@ -5836,7 +6129,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="1:31" s="9" customFormat="1">
+    <row r="23" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>1E-4</v>
       </c>
@@ -5866,7 +6159,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:31" s="9" customFormat="1">
+    <row r="24" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -5953,7 +6246,7 @@
         <v>-1.2604924873638375</v>
       </c>
     </row>
-    <row r="25" spans="1:31" s="9" customFormat="1">
+    <row r="25" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>1E-3</v>
       </c>
@@ -6055,7 +6348,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:31" s="9" customFormat="1">
+    <row r="26" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>2E-3</v>
       </c>
@@ -6140,7 +6433,7 @@
         <v>-4.1254943091895377</v>
       </c>
     </row>
-    <row r="27" spans="1:31" s="9" customFormat="1">
+    <row r="27" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -6225,16 +6518,16 @@
         <v>-5.0047943091895366</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AA28" s="9"/>
     </row>
-    <row r="29" spans="1:31" s="5" customFormat="1">
+    <row r="29" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E29" s="11" t="s">
         <v>24</v>
       </c>
       <c r="AA29" s="9"/>
     </row>
-    <row r="30" spans="1:31" s="9" customFormat="1">
+    <row r="30" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -6292,7 +6585,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:31" s="9" customFormat="1">
+    <row r="31" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <f>H44/F31</f>
         <v>2.9999999999999997E-4</v>
@@ -6339,7 +6632,7 @@
         <v>2.2166665333373967E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:31" s="9" customFormat="1">
+    <row r="32" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -6421,7 +6714,7 @@
         <v>0.16134586820257468</v>
       </c>
     </row>
-    <row r="33" spans="1:26" s="9" customFormat="1">
+    <row r="33" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>1E-3</v>
       </c>
@@ -6500,7 +6793,7 @@
         <v>0.35910915437902469</v>
       </c>
     </row>
-    <row r="34" spans="1:26" s="9" customFormat="1">
+    <row r="34" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -6576,7 +6869,7 @@
         <v>0.56520565757220487</v>
       </c>
     </row>
-    <row r="35" spans="1:26" s="9" customFormat="1">
+    <row r="35" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -6655,7 +6948,7 @@
         <v>0.37217363684322491</v>
       </c>
     </row>
-    <row r="36" spans="1:26" s="9" customFormat="1">
+    <row r="36" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
@@ -6663,7 +6956,7 @@
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:26" s="9" customFormat="1">
+    <row r="37" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>0</v>
       </c>
@@ -6695,7 +6988,7 @@
       <c r="R37" s="12"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:26" s="9" customFormat="1">
+    <row r="38" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -6777,7 +7070,7 @@
         <v>0.11642391016292386</v>
       </c>
     </row>
-    <row r="39" spans="1:26" s="9" customFormat="1">
+    <row r="39" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>1E-3</v>
       </c>
@@ -6856,7 +7149,7 @@
         <v>0.18389068159397404</v>
       </c>
     </row>
-    <row r="40" spans="1:26" s="9" customFormat="1">
+    <row r="40" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -6935,7 +7228,7 @@
         <v>0.15853162466513471</v>
       </c>
     </row>
-    <row r="41" spans="1:26" s="9" customFormat="1">
+    <row r="41" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -7014,12 +7307,12 @@
         <v>-0.20247908947032522</v>
       </c>
     </row>
-    <row r="42" spans="1:26" s="9" customFormat="1" ht="13.5" customHeight="1">
+    <row r="42" spans="1:26" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q42" s="12"/>
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:26" s="9" customFormat="1">
+    <row r="43" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>0</v>
       </c>
@@ -7050,7 +7343,7 @@
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:26" s="9" customFormat="1">
+    <row r="44" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G44" s="8"/>
       <c r="H44" s="8">
         <v>1.4999999999999999E-2</v>
@@ -7058,7 +7351,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="1:26" s="9" customFormat="1">
+    <row r="45" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -7140,7 +7433,7 @@
         <v>-0.19534732419227296</v>
       </c>
     </row>
-    <row r="46" spans="1:26" s="9" customFormat="1">
+    <row r="46" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>1E-3</v>
       </c>
@@ -7219,7 +7512,7 @@
         <v>-0.45159812675744249</v>
       </c>
     </row>
-    <row r="47" spans="1:26" s="9" customFormat="1">
+    <row r="47" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -7300,7 +7593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:26" s="9" customFormat="1">
+    <row r="48" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -7379,7 +7672,7 @@
         <v>-2.3782636315677523</v>
       </c>
     </row>
-    <row r="49" s="9" customFormat="1"/>
+    <row r="49" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="V7:W7"/>
@@ -7391,14 +7684,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" customWidth="1"/>
@@ -7406,7 +7699,7 @@
     <col min="16" max="16" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -7454,7 +7747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -7495,7 +7788,7 @@
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -7538,7 +7831,7 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -7579,7 +7872,7 @@
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -7620,7 +7913,7 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>0.01</v>
       </c>
@@ -7660,7 +7953,7 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -7708,7 +8001,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -7749,7 +8042,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -7792,7 +8085,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -7833,7 +8126,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -7874,7 +8167,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>0.01</v>
       </c>
@@ -7922,14 +8215,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M12" sqref="M12:N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="6.5703125" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" customWidth="1"/>
@@ -7944,66 +8237,66 @@
     <col min="12" max="12" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="18" customFormat="1" ht="30">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:21" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17" t="s">
+      <c r="R1" s="16"/>
+      <c r="S1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -8048,7 +8341,7 @@
         <f>H2/J2</f>
         <v>1.9999999999999997E-2</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="16" t="s">
         <v>55</v>
       </c>
       <c r="P2">
@@ -8064,7 +8357,7 @@
         <v>32.319813652028472</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1E-3</v>
       </c>
@@ -8122,7 +8415,7 @@
         <v>10.292453413007117</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -8187,7 +8480,7 @@
         <v>4.1247925460811388</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -8252,14 +8545,14 @@
         <v>3.243698136520285</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -8269,61 +8562,61 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="30">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="N9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="O9" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="P9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="Q9" s="17" t="s">
+      <c r="Q9" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R9" s="17"/>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="R9" s="16"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -8368,7 +8661,7 @@
         <f>H10/J10</f>
         <v>1.9999999999999997E-2</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="O10" s="16" t="s">
         <v>55</v>
       </c>
       <c r="P10">
@@ -8380,7 +8673,7 @@
         <v>29.369813652028473</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>1E-3</v>
       </c>
@@ -8434,7 +8727,7 @@
         <v>7.3424534130071182</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -8496,7 +8789,7 @@
         <v>1.174792546081139</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -8558,7 +8851,7 @@
         <v>0.29369813652028476</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="N15">
         <v>0.45</v>
       </c>
@@ -8570,14 +8863,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" customWidth="1"/>
@@ -8589,486 +8882,495 @@
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
     <col min="9" max="9" width="6.85546875" customWidth="1"/>
     <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="18" customFormat="1" ht="30">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:23" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="T1" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" s="17"/>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="19">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="R1" s="16"/>
+      <c r="S1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+    </row>
+    <row r="2" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="B2" s="22">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D2" s="5">
         <f>E2/A2</f>
-        <v>6</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1.4999999999999999E-2</v>
+        <v>40</v>
+      </c>
+      <c r="E2" s="20">
+        <v>0.01</v>
       </c>
       <c r="F2">
         <f>PI()/4*A2^2</f>
-        <v>4.9087385212340517E-6</v>
+        <v>4.9087385212340514E-8</v>
       </c>
       <c r="G2">
         <f>B2*A2</f>
-        <v>6.2500000000000001E-5</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="H2">
         <f>F2*I2</f>
-        <v>1.0416666666666666E-5</v>
+        <v>1.5625000000000001E-7</v>
       </c>
       <c r="I2">
         <f>G2*1/D2/F2</f>
-        <v>2.1220659078919377</v>
+        <v>3.1830988618379075</v>
       </c>
       <c r="J2">
         <f>G2*1</f>
-        <v>6.2500000000000001E-5</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="K2">
         <f>F2/G2</f>
-        <v>7.8539816339744828E-2</v>
+        <v>7.8539816339744817E-3</v>
       </c>
       <c r="L2">
         <f>H2/J2</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="M2">
-        <v>2.8</v>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M2" s="20">
+        <v>2</v>
       </c>
       <c r="N2">
         <f>M2/L2^2*K2^2</f>
-        <v>0.62178507726862953</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>55</v>
-      </c>
+        <v>0.19739208802178707</v>
+      </c>
+      <c r="O2" s="20"/>
       <c r="P2">
         <f>1.225*I2*A2/0.000017894</f>
-        <v>363.1846900033006</v>
+        <v>54.477703500495103</v>
       </c>
       <c r="Q2">
         <f>64/P2*C2/A2</f>
-        <v>0.35243776382434167</v>
-      </c>
-      <c r="S2">
-        <f>Q2+$N$7+$N$14+1</f>
-        <v>2.6373033331859501</v>
-      </c>
-      <c r="T2">
-        <f>2*S2</f>
-        <v>5.2746066663719002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="19">
+        <v>23.495850921622772</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="19">
+        <f>A2/C2</f>
+        <v>0.05</v>
+      </c>
+      <c r="T2" s="21">
+        <f>E2/B2</f>
+        <v>0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D3" s="5">
         <f>E3/A3</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="5">
-        <v>7.4999999999999997E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F5" si="0">PI()/4*A3^2</f>
+        <f>PI()/4*A3^2</f>
         <v>4.9087385212340517E-6</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G5" si="1">B3*A3</f>
+        <f>B3*A3</f>
         <v>6.2500000000000001E-5</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H5" si="2">F3*I3</f>
-        <v>2.0833333333333333E-5</v>
+        <f>F3*I3</f>
+        <v>1.0416666666666666E-5</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I5" si="3">G3*1/D3/F3</f>
-        <v>4.2441318157838754</v>
+        <f>G3*1/D3/F3</f>
+        <v>2.1220659078919377</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J5" si="4">G3*1</f>
+        <f>G3*1</f>
         <v>6.2500000000000001E-5</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K5" si="5">F3/G3</f>
+        <f>F3/G3</f>
         <v>7.8539816339744828E-2</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L5" si="6">H3/J3</f>
-        <v>0.33333333333333331</v>
+        <f>H3/J3</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="M3">
         <v>2.8</v>
       </c>
       <c r="N3">
         <f>M3/L3^2*K3^2</f>
-        <v>0.15544626931715738</v>
+        <v>0.62178507726862953</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P5" si="7">1.225*I3*A3/0.000017894</f>
-        <v>726.3693800066012</v>
+        <f>1.225*I3*A3/0.000017894</f>
+        <v>363.1846900033006</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q5" si="8">64/P3*C3/A3</f>
-        <v>0.17621888191217083</v>
-      </c>
-      <c r="S3">
-        <f>Q3+$N$7+$N$14+1</f>
-        <v>2.4610844512737797</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T5" si="9">2*S3</f>
-        <v>4.9221689025475595</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="19">
-        <v>3.3300000000000001E-3</v>
-      </c>
-      <c r="B4" s="5">
+        <f>64/P3*C3/A3</f>
+        <v>0.35243776382434167</v>
+      </c>
+      <c r="S3" s="19">
+        <f>A3/C3</f>
+        <v>0.5</v>
+      </c>
+      <c r="T3" s="21">
+        <f t="shared" ref="T3:T6" si="0">E3/B3</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="B4" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D4" s="5">
         <f>E4/A4</f>
-        <v>3.0030030030030028</v>
+        <v>3</v>
       </c>
       <c r="E4" s="5">
-        <v>0.01</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>8.7092016940979644E-6</v>
+        <f t="shared" ref="F4:F6" si="1">PI()/4*A4^2</f>
+        <v>4.9087385212340517E-6</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
-        <v>8.3250000000000004E-5</v>
+        <f t="shared" ref="G4:G6" si="2">B4*A4</f>
+        <v>6.2500000000000001E-5</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
-        <v>2.7722250000000004E-5</v>
+        <f t="shared" ref="H4:H6" si="3">F4*I4</f>
+        <v>2.0833333333333333E-5</v>
       </c>
       <c r="I4">
-        <f t="shared" si="3"/>
-        <v>3.183098861837907</v>
+        <f t="shared" ref="I4:I6" si="4">G4*1/D4/F4</f>
+        <v>4.2441318157838754</v>
       </c>
       <c r="J4">
-        <f t="shared" si="4"/>
-        <v>8.3250000000000004E-5</v>
+        <f t="shared" ref="J4:J6" si="5">G4*1</f>
+        <v>6.2500000000000001E-5</v>
       </c>
       <c r="K4">
-        <f t="shared" si="5"/>
-        <v>0.1046150353645401</v>
+        <f t="shared" ref="K4:K6" si="6">F4/G4</f>
+        <v>7.8539816339744828E-2</v>
       </c>
       <c r="L4">
-        <f t="shared" si="6"/>
-        <v>0.33300000000000002</v>
+        <f t="shared" ref="L4:L6" si="7">H4/J4</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M4">
         <v>2.8</v>
       </c>
       <c r="N4">
         <f>M4/L4^2*K4^2</f>
+        <v>0.15544626931715738</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P6" si="8">1.225*I4*A4/0.000017894</f>
+        <v>726.3693800066012</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q6" si="9">64/P4*C4/A4</f>
+        <v>0.17621888191217083</v>
+      </c>
+      <c r="S4" s="19">
+        <f t="shared" ref="S4:S6" si="10">A4/C4</f>
+        <v>0.5</v>
+      </c>
+      <c r="T4" s="21">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D5" s="5">
+        <f>E5/A5</f>
+        <v>3.0030030030030028</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>8.7092016940979644E-6</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>8.3250000000000004E-5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>2.7722250000000004E-5</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>3.183098861837907</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>8.3250000000000004E-5</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>0.1046150353645401</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="7"/>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="M5">
+        <v>2.8</v>
+      </c>
+      <c r="N5">
+        <f>M5/L5^2*K5^2</f>
         <v>0.27634892323050192</v>
       </c>
-      <c r="P4">
-        <f t="shared" si="7"/>
+      <c r="P5">
+        <f t="shared" si="8"/>
         <v>725.64301062659467</v>
       </c>
-      <c r="Q4">
-        <f t="shared" si="8"/>
+      <c r="Q5">
+        <f t="shared" si="9"/>
         <v>0.13242888677879894</v>
       </c>
-      <c r="S4">
-        <f>Q4+$N$7+$N$14+1</f>
-        <v>2.4172944561404073</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="9"/>
-        <v>4.8345889122808146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="19">
+      <c r="S5" s="19">
+        <f t="shared" si="10"/>
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="T5" s="21">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
         <f>5/3000</f>
         <v>1.6666666666666668E-3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B6" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C6" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D5" s="5">
-        <f>E5/A5</f>
+      <c r="D6" s="5">
+        <f>E6/A6</f>
         <v>6</v>
       </c>
-      <c r="E5" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="F5">
+      <c r="E6" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>2.1816615649929125E-6</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666672E-5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>6.9444444444444456E-6</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>3.1830988618379066</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>4.1666666666666672E-5</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>5.235987755982989E-2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="8"/>
+        <v>363.1846900033006</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="9"/>
+        <v>0.5286566457365125</v>
+      </c>
+      <c r="S6" s="19">
+        <f t="shared" si="10"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="T6" s="21">
         <f t="shared" si="0"/>
-        <v>2.1816615649929125E-6</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>4.1666666666666672E-5</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>6.9444444444444456E-6</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
-        <v>3.1830988618379066</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="4"/>
-        <v>4.1666666666666672E-5</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="5"/>
-        <v>5.235987755982989E-2</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="6"/>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="7"/>
-        <v>363.1846900033006</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="8"/>
-        <v>0.5286566457365125</v>
-      </c>
-      <c r="S5">
-        <f>Q5+$N$7+$N$14+1</f>
-        <v>2.8135222150981214</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="9"/>
-        <v>5.6270444301962428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:21">
+        <v>0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="N7">
-        <f>AVERAGE(N2:N4)</f>
-        <v>0.35119342327209629</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="30">
-      <c r="A9" s="17" t="s">
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="N8">
+        <f>AVERAGE(N2:N5)</f>
+        <v>0.31274308945951895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H10" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I10" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K10" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L10" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M10" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="N10" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="O10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="P10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="Q9" s="17" t="s">
+      <c r="Q10" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R9" s="17"/>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="19">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="B10" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C10" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D10" s="5">
-        <f>E10/A10</f>
-        <v>6</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F10">
-        <f>PI()/4*A10^2</f>
-        <v>4.9087385212340517E-6</v>
-      </c>
-      <c r="G10">
-        <f>B10*A10</f>
-        <v>6.2500000000000001E-5</v>
-      </c>
-      <c r="H10">
-        <f>F10*I10</f>
-        <v>1.0416666666666666E-5</v>
-      </c>
-      <c r="I10">
-        <f>G10*1/D10/F10</f>
-        <v>2.1220659078919377</v>
-      </c>
-      <c r="J10">
-        <f>G10*1</f>
-        <v>6.2500000000000001E-5</v>
-      </c>
-      <c r="K10">
-        <f>F10/G10</f>
-        <v>7.8539816339744828E-2</v>
-      </c>
-      <c r="L10">
-        <f>H10/J10</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="M10">
-        <f t="shared" ref="M10:M11" si="10">1+(L10/K10)^2-2*(1-L10)</f>
-        <v>3.8364970507705669</v>
-      </c>
-      <c r="N10">
-        <f t="shared" ref="N10:N11" si="11">M10/L10^2*K10^2</f>
-        <v>0.85195593398365943</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10">
-        <f>1.225*I10*A10/0.000017894</f>
-        <v>363.1846900033006</v>
-      </c>
-      <c r="Q10">
-        <f>64/P10*C10/A10</f>
-        <v>0.35243776382434167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="19">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="R10" s="16"/>
+    </row>
+    <row r="11" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="B11" s="20">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C11" s="5">
@@ -9076,59 +9378,55 @@
       </c>
       <c r="D11" s="5">
         <f>E11/A11</f>
-        <v>3</v>
-      </c>
-      <c r="E11" s="5">
-        <v>7.4999999999999997E-3</v>
+        <v>40</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0.01</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F13" si="12">PI()/4*A11^2</f>
-        <v>4.9087385212340517E-6</v>
+        <f>PI()/4*A11^2</f>
+        <v>4.9087385212340514E-8</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:G13" si="13">B11*A11</f>
-        <v>6.2500000000000001E-5</v>
+        <f>B11*A11</f>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H13" si="14">F11*I11</f>
-        <v>2.0833333333333333E-5</v>
+        <f>F11*I11</f>
+        <v>1.5625000000000001E-7</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I13" si="15">G11*1/D11/F11</f>
-        <v>4.2441318157838754</v>
+        <f>G11*1/D11/F11</f>
+        <v>3.1830988618379075</v>
       </c>
       <c r="J11">
-        <f t="shared" ref="J11:J13" si="16">G11*1</f>
-        <v>6.2500000000000001E-5</v>
+        <f>G11*1</f>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="K11:K13" si="17">F11/G11</f>
-        <v>7.8539816339744828E-2</v>
+        <f>F11/G11</f>
+        <v>7.8539816339744817E-3</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:L13" si="18">H11/J11</f>
-        <v>0.33333333333333331</v>
+        <f>H11/J11</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="M11">
-        <f t="shared" si="10"/>
-        <v>17.679321536415603</v>
+        <f t="shared" ref="M11" si="11">1+(L11/K11)^2-2*(1-L11)</f>
+        <v>9.1821183642337818</v>
       </c>
       <c r="N11">
-        <f t="shared" si="11"/>
-        <v>0.98149449174795733</v>
-      </c>
-      <c r="P11">
-        <f t="shared" ref="P11:P13" si="19">1.225*I11*A11/0.000017894</f>
-        <v>726.3693800066012</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" ref="Q11:Q13" si="20">64/P11*C11/A11</f>
-        <v>0.17621888191217083</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="19">
-        <v>3.3300000000000001E-3</v>
+        <f t="shared" ref="N11" si="12">M11/L11^2*K11^2</f>
+        <v>0.90623875818965105</v>
+      </c>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="B12" s="5">
         <v>2.5000000000000001E-2</v>
@@ -9138,126 +9436,312 @@
       </c>
       <c r="D12" s="5">
         <f>E12/A12</f>
+        <v>6</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F12">
+        <f>PI()/4*A12^2</f>
+        <v>4.9087385212340517E-6</v>
+      </c>
+      <c r="G12">
+        <f>B12*A12</f>
+        <v>6.2500000000000001E-5</v>
+      </c>
+      <c r="H12">
+        <f>F12*I12</f>
+        <v>1.0416666666666666E-5</v>
+      </c>
+      <c r="I12">
+        <f>G12*1/D12/F12</f>
+        <v>2.1220659078919377</v>
+      </c>
+      <c r="J12">
+        <f>G12*1</f>
+        <v>6.2500000000000001E-5</v>
+      </c>
+      <c r="K12">
+        <f>F12/G12</f>
+        <v>7.8539816339744828E-2</v>
+      </c>
+      <c r="L12">
+        <f>H12/J12</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12:M13" si="13">1+(L12/K12)^2-2*(1-L12)</f>
+        <v>3.8364970507705669</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ref="N12:N13" si="14">M12/L12^2*K12^2</f>
+        <v>0.85195593398365943</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="P12">
+        <f>1.225*I12*A12/0.000017894</f>
+        <v>363.1846900033006</v>
+      </c>
+      <c r="Q12">
+        <f>64/P12*C12/A12</f>
+        <v>0.35243776382434167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D13" s="5">
+        <f>E13/A13</f>
+        <v>3</v>
+      </c>
+      <c r="E13" s="5">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F15" si="15">PI()/4*A13^2</f>
+        <v>4.9087385212340517E-6</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G15" si="16">B13*A13</f>
+        <v>6.2500000000000001E-5</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:H15" si="17">F13*I13</f>
+        <v>2.0833333333333333E-5</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:I15" si="18">G13*1/D13/F13</f>
+        <v>4.2441318157838754</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13:J15" si="19">G13*1</f>
+        <v>6.2500000000000001E-5</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:K15" si="20">F13/G13</f>
+        <v>7.8539816339744828E-2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13:L15" si="21">H13/J13</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="13"/>
+        <v>17.679321536415603</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="14"/>
+        <v>0.98149449174795733</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13:P15" si="22">1.225*I13*A13/0.000017894</f>
+        <v>726.3693800066012</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ref="Q13:Q15" si="23">64/P13*C13/A13</f>
+        <v>0.17621888191217083</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D14" s="5">
+        <f>E14/A14</f>
         <v>3.0030030030030028</v>
       </c>
-      <c r="E12" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="12"/>
+      <c r="E14" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="15"/>
         <v>8.7092016940979644E-6</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="13"/>
-        <v>8.3250000000000004E-5</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="14"/>
-        <v>2.7722250000000004E-5</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="15"/>
-        <v>3.183098861837907</v>
-      </c>
-      <c r="J12">
+      <c r="G14">
         <f t="shared" si="16"/>
         <v>8.3250000000000004E-5</v>
       </c>
-      <c r="K12">
+      <c r="H14">
         <f t="shared" si="17"/>
+        <v>2.7722250000000004E-5</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="18"/>
+        <v>3.183098861837907</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="19"/>
+        <v>8.3250000000000004E-5</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="20"/>
         <v>0.1046150353645401</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="18"/>
+      <c r="L14">
+        <f t="shared" si="21"/>
         <v>0.33300000000000002</v>
       </c>
-      <c r="M12">
-        <f>1+(L12/K12)^2-2*(1-L12)</f>
+      <c r="M14">
+        <f>1+(L14/K14)^2-2*(1-L14)</f>
         <v>9.7981183642337815</v>
       </c>
-      <c r="N12">
-        <f>M12/L12^2*K12^2</f>
+      <c r="N14">
+        <f>M14/L14^2*K14^2</f>
         <v>0.96703552130036152</v>
       </c>
-      <c r="P12">
-        <f t="shared" si="19"/>
+      <c r="P14">
+        <f t="shared" si="22"/>
         <v>725.64301062659467</v>
       </c>
-      <c r="Q12">
-        <f t="shared" si="20"/>
+      <c r="Q14">
+        <f t="shared" si="23"/>
         <v>0.13242888677879894</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="19">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
         <f>5/3000</f>
         <v>1.6666666666666668E-3</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B15" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C15" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D13" s="5">
-        <f>E13/A13</f>
+      <c r="D15" s="5">
+        <f>E15/A15</f>
         <v>6</v>
       </c>
-      <c r="E13" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="12"/>
+      <c r="E15" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="15"/>
         <v>2.1816615649929125E-6</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="13"/>
-        <v>4.1666666666666672E-5</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="14"/>
-        <v>6.9444444444444456E-6</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="15"/>
-        <v>3.1830988618379066</v>
-      </c>
-      <c r="J13">
+      <c r="G15">
         <f t="shared" si="16"/>
         <v>4.1666666666666672E-5</v>
       </c>
-      <c r="K13">
+      <c r="H15">
         <f t="shared" si="17"/>
+        <v>6.9444444444444456E-6</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="18"/>
+        <v>3.1830988618379066</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="19"/>
+        <v>4.1666666666666672E-5</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="20"/>
         <v>5.235987755982989E-2</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="18"/>
+      <c r="L15">
+        <f t="shared" si="21"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="M13">
-        <f>1+(L13/K13)^2-2*(1-L13)</f>
+      <c r="M15">
+        <f>1+(L15/K15)^2-2*(1-L15)</f>
         <v>9.4654516975671132</v>
       </c>
-      <c r="N13">
-        <f>M13/L13^2*K13^2</f>
+      <c r="N15">
+        <f>M15/L15^2*K15^2</f>
         <v>0.93420263732607101</v>
       </c>
-      <c r="P13">
-        <f t="shared" si="19"/>
+      <c r="P15">
+        <f t="shared" si="22"/>
         <v>363.1846900033006</v>
       </c>
-      <c r="Q13">
-        <f t="shared" si="20"/>
+      <c r="Q15">
+        <f t="shared" si="23"/>
         <v>0.5286566457365125</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
-      <c r="N14">
-        <f>AVERAGE(N10:N13)</f>
-        <v>0.93367214608951232</v>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <f>AVERAGE(N11:N15)</f>
+        <v>0.92818546850953998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>Q2+$N$8+$N$16+1</f>
+        <v>25.736779479591831</v>
+      </c>
+      <c r="B19">
+        <f>2*A19</f>
+        <v>51.473558959183663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>Q3+$N$8+$N$16+1</f>
+        <v>2.5933663217934004</v>
+      </c>
+      <c r="B20">
+        <f>2*A20</f>
+        <v>5.1867326435868009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>Q4+$N$8+$N$16+1</f>
+        <v>2.41714743988123</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21:B23" si="24">2*A21</f>
+        <v>4.8342948797624601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>Q5+$N$8+$N$16+1</f>
+        <v>2.3733574447478576</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="24"/>
+        <v>4.7467148894957152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>Q6+$N$8+$N$16+1</f>
+        <v>2.7695852037055713</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="24"/>
+        <v>5.5391704074111425</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>